--- a/water_potentials_20180605.xlsx
+++ b/water_potentials_20180605.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penn529\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penn529\Documents\GitHub\PREMIS-sapflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5900" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5904" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$269</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1112,18 +1112,18 @@
       <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="8.77734375" style="2"/>
     <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="3"/>
-    <col min="14" max="14" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="3"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>43256</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>43256</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>43256</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>43256</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>43256</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>43256</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>43256</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>43256</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>43256</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>43256</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>43256</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>43256</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>43256</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>43256</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>43256</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>43256</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>43256</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>43256</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>43256</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>43256</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>43256</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>43256</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>43256</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43256</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>43256</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>43256</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43256</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>43256</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>43256</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>43256</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>43256</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>43256</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>43256</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
         <v>43256</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
         <v>43256</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
         <v>43256</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>43256</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>43256</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>43256</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>43256</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>43256</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>43256</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>43256</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>43256</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>43256</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>43256</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>43256</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>43256</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>43256</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>43256</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>43256</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>43256</v>
       </c>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>43256</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>43256</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>43256</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>43256</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>43256</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>43256</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>43256</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
         <v>43256</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="28">
         <v>43256</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="H62" s="30"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>43256</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
         <v>43256</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="G64" s="30"/>
       <c r="H64" s="30"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="28">
         <v>43256</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
         <v>43256</v>
       </c>
@@ -2915,7 +2915,7 @@
       <c r="G66" s="24"/>
       <c r="H66" s="24"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="28">
         <v>43256</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="H67" s="30"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="28">
         <v>43256</v>
       </c>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H68" s="30"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="22">
         <v>43256</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="22">
         <v>43256</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="G70" s="24"/>
       <c r="H70" s="24"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="22">
         <v>43256</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>43256</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="22">
         <v>43256</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
         <v>43256</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>43256</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>43256</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>43256</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>43256</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>43256</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>43256</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>43256</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>43256</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>43256</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>43256</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>43256</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>43256</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>43256</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>43256</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>43256</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>43256</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="22">
         <v>43256</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="28">
         <v>43256</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H92" s="30"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="28">
         <v>43256</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>43256</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>43256</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>43256</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="22">
         <v>43256</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>43256</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>43256</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>43256</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>43256</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>43256</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>43257</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>43257</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>43257</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="28">
         <v>43257</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="H106" s="30"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="28">
         <v>43257</v>
       </c>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H107" s="30"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="28">
         <v>43257</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="28">
         <v>43257</v>
       </c>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="H109" s="30"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="28">
         <v>43257</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="H110" s="30"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="28">
         <v>43257</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="H111" s="30"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>43257</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>43257</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>43257</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>43257</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>43257</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>43257</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="22">
         <v>43257</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="22">
         <v>43257</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="22">
         <v>43257</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="22">
         <v>43257</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="22">
         <v>43257</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="22">
         <v>43257</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>43257</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>43257</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>43257</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>43257</v>
       </c>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>43257</v>
       </c>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>43257</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>43257</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>43257</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>43257</v>
       </c>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>43257</v>
       </c>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>43257</v>
       </c>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>43257</v>
       </c>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="H135" s="10"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>43257</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>43257</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>43257</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="28">
         <v>43257</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="28">
         <v>43257</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G140" s="30"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>43257</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="22">
         <v>43257</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="22">
         <v>43257</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="G143" s="24"/>
       <c r="H143" s="24"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>43257</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="22">
         <v>43257</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="G145" s="24"/>
       <c r="H145" s="24"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>43257</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="22">
         <v>43257</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="28">
         <v>43257</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="22">
         <v>43257</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="28">
         <v>43257</v>
       </c>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G150" s="30"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="28">
         <v>43257</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="G151" s="30"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="28">
         <v>43257</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
         <v>43257</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="28">
         <v>43257</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="22">
         <v>43257</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="28">
         <v>43257</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="28">
         <v>43257</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>43257</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>43257</v>
       </c>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>43257</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>43257</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="22">
         <v>43257</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>43257</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="22">
         <v>43257</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>43257</v>
       </c>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="22">
         <v>43257</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="22">
         <v>43257</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>43257</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="H168" s="10"/>
       <c r="I168" s="10"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>43257</v>
       </c>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>43257</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="22">
         <v>43257</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="28">
         <v>43257</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>43257</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>43257</v>
       </c>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>43257</v>
       </c>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="28">
         <v>43257</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="22">
         <v>43257</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="28">
         <v>43257</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="28">
         <v>43257</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>43257</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="H180" s="10"/>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="28">
         <v>43257</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="28">
         <v>43257</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="22">
         <v>43257</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="28">
         <v>43257</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>43257</v>
       </c>
@@ -5746,7 +5746,7 @@
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="22">
         <v>43257</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="22">
         <v>43257</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="G187" s="24"/>
       <c r="H187" s="24"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="18">
         <v>43257</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>43257</v>
       </c>
@@ -5841,7 +5841,7 @@
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="22">
         <v>43257</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="22">
         <v>43257</v>
       </c>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="G191" s="24"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="22">
         <v>43257</v>
       </c>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="G192" s="24"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>43257</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="28">
         <v>43257</v>
       </c>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="G194" s="30"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="22">
         <v>43257</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="28">
         <v>43257</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>43257</v>
       </c>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>43257</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="22">
         <v>43257</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="G199" s="24"/>
       <c r="H199" s="24"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>43257</v>
       </c>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="22">
         <v>43257</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>43257</v>
       </c>
@@ -6153,7 +6153,7 @@
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>43257</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
         <v>43257</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="18">
         <v>43257</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="18">
         <v>43257</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="22">
         <v>43257</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="18">
         <v>43257</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>43257</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="22">
         <v>43257</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="22">
         <v>43257</v>
       </c>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>43257</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>43257</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="I213" s="10"/>
       <c r="J213" s="10"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="22">
         <v>43257</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="28">
         <v>43257</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="22">
         <v>43257</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>43257</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="28">
         <v>43257</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>43257</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="18">
         <v>43257</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="22">
         <v>43257</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>43257</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="H222" s="10"/>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="22">
         <v>43257</v>
       </c>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="G223" s="24"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>43257</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>43257</v>
       </c>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="28">
         <v>43257</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="22">
         <v>43257</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>43257</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="H228" s="10"/>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>43257</v>
       </c>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="22">
         <v>43257</v>
       </c>
@@ -6831,7 +6831,7 @@
       <c r="G230" s="24"/>
       <c r="H230" s="24"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>43257</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>43257</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="18">
         <v>43257</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>43257</v>
       </c>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>43257</v>
       </c>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>43257</v>
       </c>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>43257</v>
       </c>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="H237" s="10"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="22">
         <v>43257</v>
       </c>
@@ -7014,7 +7014,7 @@
       <c r="G238" s="24"/>
       <c r="H238" s="24"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>43257</v>
       </c>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="H239" s="10"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="22">
         <v>43257</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="G240" s="24"/>
       <c r="H240" s="24"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>43257</v>
       </c>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="H241" s="10"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="28">
         <v>43257</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>43257</v>
       </c>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="H243" s="10"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>43257</v>
       </c>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="28">
         <v>43257</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>43257</v>
       </c>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="28">
         <v>43257</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="28">
         <v>43257</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>43257</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="G249" s="10"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>43257</v>
       </c>
@@ -7292,7 +7292,7 @@
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>43257</v>
       </c>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="H251" s="10"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="28">
         <v>43257</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="G252" s="30"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>43257</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="G253" s="10"/>
       <c r="H253" s="10"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="22">
         <v>43257</v>
       </c>
@@ -7381,7 +7381,7 @@
       <c r="G254" s="24"/>
       <c r="H254" s="24"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>43257</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>43257</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="G256" s="10"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="22">
         <v>43257</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>43257</v>
       </c>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>43257</v>
       </c>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="H259" s="10"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>43257</v>
       </c>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="H260" s="10"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="22">
         <v>43257</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="G261" s="24"/>
       <c r="H261" s="24"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>43257</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="H262" s="10"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="28">
         <v>43257</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>43257</v>
       </c>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="28">
         <v>43257</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="28">
         <v>43257</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="28">
         <v>43257</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="22">
         <v>43257</v>
       </c>
@@ -7701,7 +7701,7 @@
       <c r="G268" s="24"/>
       <c r="H268" s="24"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>43257</v>
       </c>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>43257</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>43257</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="G271" s="10"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>43257</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="28">
         <v>43257</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>43257</v>
       </c>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="H274" s="10"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>43257</v>
       </c>
@@ -7862,7 +7862,7 @@
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="28">
         <v>43257</v>
       </c>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="G276" s="30"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="28">
         <v>43257</v>
       </c>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="G277" s="30"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="28">
         <v>43257</v>
       </c>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="G278" s="30"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>43257</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="G279" s="10"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="22">
         <v>43257</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="G280" s="24"/>
       <c r="H280" s="24"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>43257</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>43257</v>
       </c>
@@ -8013,7 +8013,7 @@
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="28">
         <v>43257</v>
       </c>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="G283" s="30"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>43257</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="G284" s="10"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="22">
         <v>43257</v>
       </c>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="H285" s="24"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="22">
         <v>43257</v>
       </c>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="H286" s="24"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="22">
         <v>43257</v>
       </c>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="H287" s="24"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="22">
         <v>43257</v>
       </c>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="H288" s="24"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="22">
         <v>43257</v>
       </c>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="H289" s="24"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="22">
         <v>43257</v>
       </c>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="H290" s="24"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="22">
         <v>43258</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="28">
         <v>43258</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="22">
         <v>43258</v>
       </c>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="H293" s="24"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="22">
         <v>43258</v>
       </c>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="H294" s="24"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="22">
         <v>43258</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="22">
         <v>43258</v>
       </c>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="H296" s="24"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="28">
         <v>43258</v>
       </c>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="H297" s="30"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="28">
         <v>43258</v>
       </c>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="H298" s="30"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="22">
         <v>43258</v>
       </c>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="H299" s="24"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="28">
         <v>43258</v>
       </c>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="H300" s="30"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="28">
         <v>43258</v>
       </c>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="H301" s="30"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="28">
         <v>43258</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="H302" s="30"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>43258</v>
       </c>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>43258</v>
       </c>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="H304" s="10"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>43258</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="H305" s="10"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>43258</v>
       </c>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="H306" s="10"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="28">
         <v>43258</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="H307" s="30"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="22">
         <v>43258</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="G308" s="24"/>
       <c r="H308" s="24"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>43258</v>
       </c>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="H309" s="10"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>43258</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="H310" s="10"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="22">
         <v>43258</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="G311" s="24"/>
       <c r="H311" s="24"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>43258</v>
       </c>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="H312" s="10"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>43258</v>
       </c>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="H313" s="10"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>43258</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="G314" s="10"/>
       <c r="H314" s="10"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="18">
         <v>43258</v>
       </c>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="H315" s="20"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="18">
         <v>43258</v>
       </c>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="H316" s="20"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="18">
         <v>43258</v>
       </c>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="H317" s="20"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="22">
         <v>43258</v>
       </c>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="H318" s="24"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="22">
         <v>43258</v>
       </c>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="H319" s="24"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="22">
         <v>43258</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="22">
         <v>43258</v>
       </c>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H321" s="24"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="22">
         <v>43258</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="H322" s="24"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="28">
         <v>43258</v>
       </c>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="H323" s="30"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="22">
         <v>43258</v>
       </c>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H324" s="24"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>43258</v>
       </c>
@@ -9012,7 +9012,7 @@
       </c>
       <c r="H325" s="10"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="22">
         <v>43258</v>
       </c>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="H326" s="24"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="22">
         <v>43258</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="28">
         <v>43258</v>
       </c>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="H328" s="30"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="22">
         <v>43258</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="H329" s="24"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="28">
         <v>43258</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="H330" s="30"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="28">
         <v>43258</v>
       </c>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="H331" s="30"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="28">
         <v>43258</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="G332" s="30"/>
       <c r="H332" s="30"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="22">
         <v>43258</v>
       </c>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H333" s="24"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>43258</v>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="H334" s="10"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>43258</v>
       </c>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="H335" s="10"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="22">
         <v>43258</v>
       </c>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H336" s="24"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="28">
         <v>43258</v>
       </c>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="H337" s="30"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="22">
         <v>43258</v>
       </c>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="H338" s="24"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>43258</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="22">
         <v>43258</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="22">
         <v>43258</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="28">
         <v>43258</v>
       </c>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="H342" s="30"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="22">
         <v>43258</v>
       </c>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="H343" s="24"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="28">
         <v>43258</v>
       </c>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="H344" s="30"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="28">
         <v>43258</v>
       </c>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="H345" s="30"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="28">
         <v>43258</v>
       </c>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="H346" s="30"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="22">
         <v>43258</v>
       </c>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H347" s="24"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>43258</v>
       </c>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="H348" s="10"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
         <v>43258</v>
       </c>
@@ -9594,7 +9594,7 @@
       </c>
       <c r="H349" s="10"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="22">
         <v>43258</v>
       </c>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="H350" s="24"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="22">
         <v>43258</v>
       </c>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="H351" s="24"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="28">
         <v>43258</v>
       </c>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="H352" s="30"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="22">
         <v>43258</v>
       </c>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="H353" s="24"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="8">
         <v>43258</v>
       </c>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="H354" s="10"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="22">
         <v>43258</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="28">
         <v>43258</v>
       </c>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="H356" s="30"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="22">
         <v>43258</v>
       </c>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="H357" s="24"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="28">
         <v>43258</v>
       </c>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="H358" s="30"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="28">
         <v>43258</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="28">
         <v>43258</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="22">
         <v>43258</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="G361" s="24"/>
       <c r="H361" s="24"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="8">
         <v>43258</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="8">
         <v>43258</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="22">
         <v>43258</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="22">
         <v>43258</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="28">
         <v>43258</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="22">
         <v>43258</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="8">
         <v>43258</v>
       </c>
@@ -10064,7 +10064,7 @@
       <c r="G368" s="10"/>
       <c r="H368" s="10"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="22">
         <v>43258</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="28">
         <v>43258</v>
       </c>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="H370" s="30"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="22">
         <v>43258</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="28">
         <v>43258</v>
       </c>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="H372" s="30"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="22">
         <v>43258</v>
       </c>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="H373" s="24"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="28">
         <v>43258</v>
       </c>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H374" s="30"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="18">
         <v>43258</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="18">
         <v>43258</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="18">
         <v>43258</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="22">
         <v>43258</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="22">
         <v>43258</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="22">
         <v>43258</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="22">
         <v>43258</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="18">
         <v>43258</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="18">
         <v>43258</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="22">
         <v>43258</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="28">
         <v>43258</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="28">
         <v>43258</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="28">
         <v>43258</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="22">
         <v>43258</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="8">
         <v>43258</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="8">
         <v>43258</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="22">
         <v>43258</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="22">
         <v>43258</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="8">
         <v>43258</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="28">
         <v>43258</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="22">
         <v>43258</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="22">
         <v>43258</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="28">
         <v>43258</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="22">
         <v>43258</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="28">
         <v>43258</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="28">
         <v>43258</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="28">
         <v>43258</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="22">
         <v>43258</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="8">
         <v>43258</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="8">
         <v>43258</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="22">
         <v>43258</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="22">
         <v>43258</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="8">
         <v>43258</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="28">
         <v>43258</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="22">
         <v>43258</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="22">
         <v>43258</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="28">
         <v>43258</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="22">
         <v>43258</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="28">
         <v>43258</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="28">
         <v>43258</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="28">
         <v>43258</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="22">
         <v>43258</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="8">
         <v>43258</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="22">
         <v>43258</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="22">
         <v>43258</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="8">
         <v>43258</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="22">
         <v>43258</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="22">
         <v>43258</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="28">
         <v>43258</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="22">
         <v>43258</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="28">
         <v>43258</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="8">
         <v>43258</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="28">
         <v>43258</v>
       </c>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="H427" s="30"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="8">
         <v>43258</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="8">
         <v>43258</v>
       </c>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="H429" s="10"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="28">
         <v>43258</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="22">
         <v>43258</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="22">
         <v>43258</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="8">
         <v>43258</v>
       </c>
@@ -11720,7 +11720,7 @@
       <c r="G433" s="10"/>
       <c r="H433" s="10"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="22">
         <v>43258</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="8">
         <v>43258</v>
       </c>
@@ -11770,7 +11770,7 @@
       </c>
       <c r="H435" s="10"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="8">
         <v>43258</v>
       </c>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="H436" s="10"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="28">
         <v>43258</v>
       </c>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="H437" s="30"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="28">
         <v>43258</v>
       </c>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="H438" s="30"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="8">
         <v>43258</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="G439" s="10"/>
       <c r="H439" s="10"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="28">
         <v>43258</v>
       </c>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="H440" s="30"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="28">
         <v>43258</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="8">
         <v>43258</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="22">
         <v>43258</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="28">
         <v>43258</v>
       </c>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="H444" s="30"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="22">
         <v>43258</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="28">
         <v>43258</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="22">
         <v>43258</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="22">
         <v>43258</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="22">
         <v>43258</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="22">
         <v>43258</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="8">
         <v>43258</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="28">
         <v>43258</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="28">
         <v>43258</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="22">
         <v>43258</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="22">
         <v>43258</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="22">
         <v>43258</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="22">
         <v>43258</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="28">
         <v>43258</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="22">
         <v>43258</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="22">
         <v>43258</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="28">
         <v>43258</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="22">
         <v>43258</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="22">
         <v>43258</v>
       </c>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="H463" s="24"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="22">
         <v>43258</v>
       </c>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="H464" s="24"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="22">
         <v>43258</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="28">
         <v>43258</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="28">
         <v>43258</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="22">
         <v>43258</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="22">
         <v>43258</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="22">
         <v>43258</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="22">
         <v>43258</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="28">
         <v>43258</v>
       </c>
@@ -12719,21 +12719,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="R144" sqref="R144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>43256</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>43257</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>43257</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>43257</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>43257</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>43257</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>43257</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>43258</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>43258</v>
       </c>
@@ -12957,12 +12957,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="58">
         <v>43256</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="58">
         <v>43256</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="58">
         <v>43256</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>43257</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>43257</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="58">
         <v>43257</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>43257</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>43257</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>43257</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="54">
         <v>43258</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>43258</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="54">
         <v>43258</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="54">
         <v>43258</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="54">
         <v>43258</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="54">
         <v>43258</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="54">
         <v>43258</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="54">
         <v>43258</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B33" s="54">
         <v>43258</v>
       </c>
@@ -13395,22 +13395,22 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B38" s="58">
         <v>43256</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B39" s="58">
         <v>43256</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B40" s="58">
         <v>43256</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>43257</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>43257</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>43257</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B44" s="58">
         <v>43257</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>43257</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>43257</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>43257</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B48" s="58">
         <v>43257</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>43257</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="58">
         <v>43257</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>43257</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="54">
         <v>43258</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="54">
         <v>43258</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="54">
         <v>43258</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="54">
         <v>43258</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="54">
         <v>43258</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>43258</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="54">
         <v>43258</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="54">
         <v>43258</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="54">
         <v>43258</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="54">
         <v>43258</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="54">
         <v>43258</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="54">
         <v>43258</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="54">
         <v>43258</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B65" s="54">
         <v>43258</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B66" s="54">
         <v>43258</v>
       </c>
@@ -14088,17 +14088,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>3</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B70" s="58">
         <v>43256</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B71" s="58">
         <v>43256</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B72" s="58">
         <v>43256</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B73" s="58">
         <v>43257</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B74" s="58">
         <v>43257</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75" s="58">
         <v>43257</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B76" s="58">
         <v>43257</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B77" s="58">
         <v>43257</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <v>43257</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B79" s="54">
         <v>43258</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B80" s="58">
         <v>43258</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B81" s="54">
         <v>43258</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B82" s="54">
         <v>43258</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B83" s="54">
         <v>43258</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B84" s="54">
         <v>43258</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>43258</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B86" s="54">
         <v>43258</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B87" s="54">
         <v>43258</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B88" s="54">
         <v>43258</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B89" s="54">
         <v>43258</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B90" s="54">
         <v>43258</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B91" s="54">
         <v>43258</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B92" s="54">
         <v>43258</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B93" s="54">
         <v>43258</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B94" s="54">
         <v>43258</v>
       </c>
@@ -14692,17 +14692,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>3</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B98" s="58">
         <v>43256</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B99" s="58">
         <v>43256</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B100" s="58">
         <v>43256</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B101" s="58">
         <v>43257</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B102" s="58">
         <v>43257</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B103" s="58">
         <v>43257</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B104" s="58">
         <v>43257</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
         <v>43257</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B106" s="54">
         <v>43258</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B107" s="58">
         <v>43258</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B108" s="54">
         <v>43258</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B109" s="54">
         <v>43258</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B110" s="54">
         <v>43258</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B111" s="54">
         <v>43258</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B112" s="1">
         <v>43258</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B113" s="54">
         <v>43258</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B114" s="54">
         <v>43258</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B115" s="54">
         <v>43258</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116" s="54">
         <v>43258</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" s="54">
         <v>43258</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B118" s="54">
         <v>43258</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B119" s="54">
         <v>43258</v>
       </c>
@@ -15227,17 +15227,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>3</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" s="58">
         <v>43256</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B124" s="58">
         <v>43256</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B125" s="58">
         <v>43256</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B126" s="58">
         <v>43257</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
         <v>43257</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B128" s="54">
         <v>43258</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B129" s="54">
         <v>43258</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B130" s="54">
         <v>43258</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B131" s="54">
         <v>43258</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B132" s="54">
         <v>43258</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B133" s="54">
         <v>43258</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B134" s="1">
         <v>43258</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B135" s="54">
         <v>43258</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B136" s="54">
         <v>43258</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B137" s="54">
         <v>43258</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B138" s="54">
         <v>43258</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B139" s="1">
         <v>43258</v>
       </c>
@@ -15659,22 +15659,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>3</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B144" s="58">
         <v>43256</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B145" s="58">
         <v>43256</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B146" s="58">
         <v>43256</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B147" s="58">
         <v>43256</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B148" s="1">
         <v>43257</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B149" s="1">
         <v>43257</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B150" s="58">
         <v>43257</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B151" s="1">
         <v>43257</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B152" s="1">
         <v>43258</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B153" s="1">
         <v>43258</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B154" s="1">
         <v>43258</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B155" s="1">
         <v>43258</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B156" s="1">
         <v>43258</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B157" s="1">
         <v>43258</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B158" s="1">
         <v>43258</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B159" s="1">
         <v>43258</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B160" s="1">
         <v>43258</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B161" s="1">
         <v>43258</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B162" s="1">
         <v>43258</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
         <v>43258</v>
       </c>
@@ -16123,17 +16123,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>3</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B167" s="58">
         <v>43256</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B168" s="58">
         <v>43256</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B169" s="58">
         <v>43256</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B170" s="58">
         <v>43256</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B171" s="58">
         <v>43257</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B172" s="1">
         <v>43257</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B173" s="1">
         <v>43257</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B174" s="1">
         <v>43257</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B175" s="1">
         <v>43257</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B176" s="1">
         <v>43257</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="1">
         <v>43257</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B178" s="1">
         <v>43257</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B179" s="1">
         <v>43257</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B180" s="1">
         <v>43258</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B181" s="1">
         <v>43258</v>
       </c>
@@ -16499,17 +16499,17 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="54">
         <v>43256</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="54">
         <v>43256</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="54">
         <v>43257</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>43257</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>43257</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>43257</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>43257</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>43257</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>43257</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>43258</v>
       </c>
@@ -16729,12 +16729,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="54">
         <v>43256</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B17" s="54">
         <v>43256</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B18" s="54">
         <v>43257</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>43258</v>
       </c>
@@ -16852,12 +16852,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="54">
         <v>43256</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="54">
         <v>43256</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>43256</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26" s="54">
         <v>43257</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>43258</v>
       </c>
@@ -16990,12 +16990,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>43256</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>43256</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>43258</v>
       </c>
@@ -17084,12 +17084,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B37" s="54">
         <v>43256</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B38" s="54">
         <v>43256</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B39" s="54">
         <v>43257</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>43258</v>
       </c>
@@ -17207,12 +17207,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>3</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B44" s="54">
         <v>43256</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B45" s="54">
         <v>43256</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B46" s="54">
         <v>43257</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>43258</v>
       </c>
@@ -17330,12 +17330,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
@@ -17361,20 +17361,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B60" s="1">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B60" s="54">
         <v>43256</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="55">
         <v>0.5541666666666667</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="56">
         <v>0.78</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="57">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60" s="57"/>
+      <c r="G60" s="57" t="s">
         <v>9</v>
       </c>
       <c r="O60" t="s">
@@ -17393,41 +17394,45 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B61" s="1">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B61" s="54">
         <v>43256</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="55">
         <v>0.60347222222222219</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="56">
         <v>2.4</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="57">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B62" s="1">
-        <v>43257</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="F61" s="57"/>
+      <c r="G61" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B62" s="54">
+        <v>43257</v>
+      </c>
+      <c r="C62" s="55">
         <v>0.50138888888888888</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="57">
         <v>2.36</v>
       </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F62" s="62">
+        <v>8.5029999999999994E-2</v>
+      </c>
+      <c r="G62" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>43258</v>
       </c>
@@ -17444,12 +17449,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>3</v>
       </c>
@@ -17475,20 +17480,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B74" s="1">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B74" s="54">
         <v>43256</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="55">
         <v>0.54791666666666672</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="56">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="57">
         <v>2.85</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74" s="57"/>
+      <c r="G74" s="57" t="s">
         <v>9</v>
       </c>
       <c r="O74" t="s">
@@ -17507,41 +17513,45 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B75" s="1">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B75" s="54">
         <v>43256</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="55">
         <v>0.60277777777777775</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="56">
         <v>2.1</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="57">
         <v>2.83</v>
       </c>
-      <c r="G75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B76" s="1">
-        <v>43257</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="F75" s="57"/>
+      <c r="G75" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B76" s="54">
+        <v>43257</v>
+      </c>
+      <c r="C76" s="55">
         <v>0.48402777777777778</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="56">
         <v>7.3</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="57">
         <v>2.66</v>
       </c>
-      <c r="G76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F76" s="62">
+        <v>0.24818999999999999</v>
+      </c>
+      <c r="G76" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>43258</v>
       </c>
@@ -17567,18 +17577,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -17607,7 +17617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>43256</v>
       </c>
@@ -17644,7 +17654,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>43256</v>
       </c>
@@ -17681,7 +17691,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>43256</v>
       </c>
@@ -17718,7 +17728,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="12">
         <v>43256</v>
       </c>
@@ -17759,7 +17769,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>43256</v>
       </c>
@@ -17781,7 +17791,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="72">
         <v>43257</v>
       </c>
@@ -17803,7 +17813,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>43257</v>
       </c>
@@ -17823,7 +17833,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="72">
         <v>43257</v>
       </c>
@@ -17846,7 +17856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>43257</v>
       </c>
@@ -17867,7 +17877,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="72">
         <v>43257</v>
       </c>
@@ -17885,7 +17895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="72">
         <v>43257</v>
       </c>
@@ -17903,7 +17913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>43257</v>
       </c>
@@ -17921,7 +17931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="72">
         <v>43257</v>
       </c>
@@ -17939,7 +17949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>43257</v>
       </c>
@@ -17957,7 +17967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B17" s="72">
         <v>43257</v>
       </c>
@@ -17975,7 +17985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>43257</v>
       </c>
@@ -17993,7 +18003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B19" s="54">
         <v>43258</v>
       </c>
@@ -18014,7 +18024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B20" s="72">
         <v>43258</v>
       </c>
@@ -18038,7 +18048,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B21" s="54">
         <v>43258</v>
       </c>
@@ -18059,7 +18069,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="54">
         <v>43258</v>
       </c>
@@ -18080,7 +18090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="54">
         <v>43258</v>
       </c>
@@ -18101,7 +18111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="54">
         <v>43258</v>
       </c>
@@ -18125,7 +18135,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" s="54">
         <v>43258</v>
       </c>
@@ -18149,7 +18159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26" s="54">
         <v>43258</v>
       </c>
@@ -18176,22 +18186,22 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
@@ -18217,7 +18227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="58">
         <v>43256</v>
       </c>
@@ -18250,7 +18260,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="58">
         <v>43256</v>
       </c>
@@ -18283,7 +18293,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="58">
         <v>43256</v>
       </c>
@@ -18316,7 +18326,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="58">
         <v>43256</v>
       </c>
@@ -18349,7 +18359,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="54">
         <v>43256</v>
       </c>
@@ -18367,7 +18377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="72">
         <v>43257</v>
       </c>
@@ -18385,7 +18395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="58">
         <v>43257</v>
       </c>
@@ -18406,7 +18416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="72">
         <v>43257</v>
       </c>
@@ -18424,7 +18434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="54">
         <v>43257</v>
       </c>
@@ -18445,7 +18455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="72">
         <v>43257</v>
       </c>
@@ -18463,7 +18473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="72">
         <v>43257</v>
       </c>
@@ -18481,7 +18491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="72">
         <v>43257</v>
       </c>
@@ -18499,7 +18509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="72">
         <v>43257</v>
       </c>
@@ -18517,7 +18527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="76">
         <v>43258</v>
       </c>
@@ -18538,7 +18548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="72">
         <v>43258</v>
       </c>
@@ -18562,7 +18572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="76">
         <v>43258</v>
       </c>
@@ -18583,7 +18593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="76">
         <v>43258</v>
       </c>
@@ -18607,7 +18617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="76">
         <v>43258</v>
       </c>
@@ -18628,7 +18638,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B49" s="76">
         <v>43258</v>
       </c>
@@ -18649,7 +18659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B50" s="76">
         <v>43258</v>
       </c>
@@ -18673,7 +18683,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B51" s="76">
         <v>43258</v>
       </c>
@@ -18697,7 +18707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B52" s="76">
         <v>43258</v>
       </c>
@@ -18721,7 +18731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B53" s="76">
         <v>43258</v>
       </c>
@@ -18745,7 +18755,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B54" s="76">
         <v>43258</v>
       </c>
@@ -18769,7 +18779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B55" s="76">
         <v>43258</v>
       </c>
@@ -18796,12 +18806,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>3</v>
       </c>
@@ -18830,7 +18840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>43256</v>
       </c>
@@ -18860,7 +18870,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>43256</v>
       </c>
@@ -18890,7 +18900,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>43256</v>
       </c>
@@ -18920,7 +18930,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>43256</v>
       </c>
@@ -18935,7 +18945,7 @@
       </c>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B62" s="54">
         <v>43256</v>
       </c>
@@ -18953,7 +18963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>43257</v>
       </c>
@@ -18971,7 +18981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="72">
         <v>43257</v>
       </c>
@@ -18989,7 +18999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B65" s="72">
         <v>43257</v>
       </c>
@@ -19007,7 +19017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B66" s="54">
         <v>43257</v>
       </c>
@@ -19025,7 +19035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B67" s="72">
         <v>43257</v>
       </c>
@@ -19043,7 +19053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B68" s="72">
         <v>43257</v>
       </c>
@@ -19061,7 +19071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>43257</v>
       </c>
@@ -19075,7 +19085,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>43257</v>
       </c>
@@ -19092,7 +19102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>43257</v>
       </c>
@@ -19109,7 +19119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>43257</v>
       </c>
@@ -19123,7 +19133,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>43257</v>
       </c>
@@ -19140,7 +19150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>43257</v>
       </c>
@@ -19154,7 +19164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>43258</v>
       </c>
@@ -19175,7 +19185,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>43258</v>
       </c>
@@ -19192,17 +19202,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>3</v>
       </c>
@@ -19228,7 +19238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B80" s="58">
         <v>43256</v>
       </c>
@@ -19262,7 +19272,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B81" s="58">
         <v>43256</v>
       </c>
@@ -19295,7 +19305,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B82" s="58">
         <v>43256</v>
       </c>
@@ -19328,7 +19338,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B83" s="58">
         <v>43256</v>
       </c>
@@ -19355,7 +19365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B84" s="54">
         <v>43256</v>
       </c>
@@ -19373,7 +19383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B85" s="72">
         <v>43257</v>
       </c>
@@ -19391,7 +19401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B86" s="72">
         <v>43257</v>
       </c>
@@ -19409,7 +19419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B87" s="54">
         <v>43257</v>
       </c>
@@ -19430,7 +19440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B88" s="58">
         <v>43257</v>
       </c>
@@ -19451,7 +19461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B89" s="72">
         <v>43257</v>
       </c>
@@ -19469,7 +19479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B90" s="72">
         <v>43257</v>
       </c>
@@ -19490,7 +19500,7 @@
       <c r="O90" s="2"/>
       <c r="R90" s="6"/>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B91" s="72">
         <v>43257</v>
       </c>
@@ -19508,7 +19518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>43257</v>
       </c>
@@ -19522,7 +19532,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B93" s="72">
         <v>43257</v>
       </c>
@@ -19540,7 +19550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>43257</v>
       </c>
@@ -19554,7 +19564,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>43257</v>
       </c>
@@ -19568,7 +19578,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>43258</v>
       </c>
@@ -19586,7 +19596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B97" s="72">
         <v>43258</v>
       </c>
@@ -19610,12 +19620,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>3</v>
       </c>
@@ -19641,7 +19651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="12">
         <v>43256</v>
@@ -19675,7 +19685,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="12">
         <v>43256</v>
@@ -19709,7 +19719,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="12">
         <v>43256</v>
@@ -19743,7 +19753,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="12">
         <v>43256</v>
@@ -19783,7 +19793,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="12">
         <v>43256</v>
@@ -19802,7 +19812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="72">
         <v>43257</v>
@@ -19821,7 +19831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="12">
         <v>43257</v>
@@ -19840,7 +19850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="1">
         <v>43257</v>
@@ -19858,7 +19868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B108" s="72">
         <v>43257</v>
       </c>
@@ -19876,7 +19886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B109" s="72">
         <v>43257</v>
       </c>
@@ -19894,7 +19904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B110" s="72">
         <v>43257</v>
       </c>
@@ -19912,7 +19922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B111" s="72">
         <v>43257</v>
       </c>
@@ -19933,7 +19943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B112" s="54">
         <v>43258</v>
       </c>
@@ -19957,7 +19967,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B113" s="54">
         <v>43258</v>
       </c>
@@ -19981,7 +19991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B114" s="54">
         <v>43258</v>
       </c>
@@ -20005,7 +20015,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B115" s="54">
         <v>43258</v>
       </c>
@@ -20029,7 +20039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116" s="54">
         <v>43258</v>
       </c>
@@ -20053,7 +20063,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" s="54">
         <v>43258</v>
       </c>
@@ -20077,7 +20087,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B118" s="54">
         <v>43258</v>
       </c>
@@ -20101,7 +20111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B119" s="54">
         <v>43258</v>
       </c>
@@ -20128,12 +20138,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>3</v>
       </c>
@@ -20159,7 +20169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B122" s="1">
         <v>43256</v>
       </c>
@@ -20191,7 +20201,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" s="1">
         <v>43256</v>
       </c>
@@ -20223,7 +20233,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B124" s="1">
         <v>43256</v>
       </c>
@@ -20255,7 +20265,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B125" s="1">
         <v>43256</v>
       </c>
@@ -20272,7 +20282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
         <v>43256</v>
       </c>
@@ -20295,7 +20305,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
         <v>43257</v>
       </c>
@@ -20312,7 +20322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B128" s="72">
         <v>43257</v>
       </c>
@@ -20333,7 +20343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B129" s="72">
         <v>43257</v>
       </c>
@@ -20351,7 +20361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B130" s="72">
         <v>43257</v>
       </c>
@@ -20369,7 +20379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B131" s="1">
         <v>43257</v>
       </c>
@@ -20383,7 +20393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B132" s="1">
         <v>43257</v>
       </c>
@@ -20397,7 +20407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B133" s="1">
         <v>43257</v>
       </c>
@@ -20414,7 +20424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B134" s="12">
         <v>43257</v>
       </c>
@@ -20432,7 +20442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B135" s="72">
         <v>43257</v>
       </c>
@@ -20453,7 +20463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B136" s="12">
         <v>43257</v>
       </c>
@@ -20471,7 +20481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B137" s="12">
         <v>43257</v>
       </c>
@@ -20489,7 +20499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B138" s="12">
         <v>43257</v>
       </c>
@@ -20507,7 +20517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B139" s="12">
         <v>43257</v>
       </c>
@@ -20525,7 +20535,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B140" s="12">
         <v>43258</v>
       </c>
@@ -20546,7 +20556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B141" s="1">
         <v>43258</v>
       </c>
@@ -20563,17 +20573,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>3</v>
       </c>
@@ -20599,7 +20609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B145" s="12">
         <v>43256</v>
       </c>
@@ -20632,7 +20642,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="146" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B146" s="12">
         <v>43256</v>
       </c>
@@ -20665,7 +20675,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B147" s="12">
         <v>43256</v>
       </c>
@@ -20698,7 +20708,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B148" s="12">
         <v>43256</v>
       </c>
@@ -20716,7 +20726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B149" s="54">
         <v>43256</v>
       </c>
@@ -20734,7 +20744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B150" s="12">
         <v>43257</v>
       </c>
@@ -20752,7 +20762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B151" s="72">
         <v>43257</v>
       </c>
@@ -20773,7 +20783,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B152" s="72">
         <v>43257</v>
       </c>
@@ -20791,7 +20801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B153" s="72">
         <v>43257</v>
       </c>
@@ -20809,7 +20819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B154" s="12">
         <v>43257</v>
       </c>
@@ -20827,7 +20837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B155" s="54">
         <v>43257</v>
       </c>
@@ -20848,7 +20858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B156" s="72">
         <v>43257</v>
       </c>
@@ -20866,7 +20876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B157" s="12">
         <v>43257</v>
       </c>
@@ -20884,7 +20894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B158" s="72">
         <v>43257</v>
       </c>
@@ -20902,7 +20912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B159" s="12">
         <v>43257</v>
       </c>
@@ -20920,7 +20930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B160" s="1">
         <v>43257</v>
       </c>
@@ -20937,7 +20947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B161" s="1">
         <v>43257</v>
       </c>
@@ -20954,7 +20964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B162" s="1">
         <v>43257</v>
       </c>
@@ -20971,7 +20981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
         <v>43257</v>
       </c>
@@ -20988,7 +20998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
         <v>43257</v>
       </c>
@@ -21005,7 +21015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B165" s="1">
         <v>43257</v>
       </c>
@@ -21022,7 +21032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B166" s="72">
         <v>43258</v>
       </c>
@@ -21046,12 +21056,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7" t="s">
         <v>3</v>
       </c>
@@ -21077,7 +21087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B169" s="64">
         <v>43256</v>
       </c>
@@ -21110,7 +21120,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B170" s="64">
         <v>43256</v>
       </c>
@@ -21143,7 +21153,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B171" s="64">
         <v>43256</v>
       </c>
@@ -21176,7 +21186,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B172" s="64">
         <v>43256</v>
       </c>
@@ -21197,7 +21207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B173" s="58">
         <v>43256</v>
       </c>
@@ -21215,7 +21225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B174" s="72">
         <v>43257</v>
       </c>
@@ -21233,7 +21243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B175" s="72">
         <v>43257</v>
       </c>
@@ -21251,7 +21261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B176" s="58">
         <v>43257</v>
       </c>
@@ -21269,7 +21279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="72">
         <v>43257</v>
       </c>
@@ -21287,7 +21297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B178" s="72">
         <v>43257</v>
       </c>
@@ -21305,7 +21315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B179" s="58">
         <v>43257</v>
       </c>
@@ -21326,7 +21336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B180" s="72">
         <v>43257</v>
       </c>
@@ -21344,7 +21354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B181" s="72">
         <v>43257</v>
       </c>
@@ -21362,7 +21372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B182" s="72">
         <v>43257</v>
       </c>
@@ -21380,7 +21390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B183" s="72">
         <v>43258</v>
       </c>
@@ -21413,18 +21423,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -21453,7 +21463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="81">
         <v>43256</v>
       </c>
@@ -21486,7 +21496,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="81">
         <v>43256</v>
       </c>
@@ -21519,7 +21529,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="81">
         <v>43256</v>
       </c>
@@ -21552,7 +21562,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="81">
         <v>43256</v>
       </c>
@@ -21570,7 +21580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="72">
         <v>43257</v>
       </c>
@@ -21595,7 +21605,7 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="81">
         <v>43257</v>
       </c>
@@ -21619,7 +21629,7 @@
       <c r="M8" s="2"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="72">
         <v>43257</v>
       </c>
@@ -21640,7 +21650,7 @@
       <c r="M9" s="2"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="72">
         <v>43257</v>
       </c>
@@ -21661,7 +21671,7 @@
       <c r="M10" s="2"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="72">
         <v>43257</v>
       </c>
@@ -21682,7 +21692,7 @@
       <c r="M11" s="2"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="72">
         <v>43257</v>
       </c>
@@ -21703,7 +21713,7 @@
       <c r="M12" s="2"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="72">
         <v>43257</v>
       </c>
@@ -21724,7 +21734,7 @@
       <c r="M13" s="2"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="58">
         <v>43258</v>
       </c>
@@ -21751,7 +21761,7 @@
       <c r="M14" s="2"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="58">
         <v>43258</v>
       </c>
@@ -21778,7 +21788,7 @@
       <c r="M15" s="2"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="58">
         <v>43258</v>
       </c>
@@ -21805,7 +21815,7 @@
       <c r="M16" s="2"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="58">
         <v>43258</v>
       </c>
@@ -21832,7 +21842,7 @@
       <c r="M17" s="2"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" s="58">
         <v>43258</v>
       </c>
@@ -21859,7 +21869,7 @@
       <c r="M18" s="2"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="58">
         <v>43258</v>
       </c>
@@ -21886,7 +21896,7 @@
       <c r="M19" s="2"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="58">
         <v>43258</v>
       </c>
@@ -21913,7 +21923,7 @@
       <c r="M20" s="2"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="58">
         <v>43258</v>
       </c>
@@ -21940,7 +21950,7 @@
       <c r="M21" s="2"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="58">
         <v>43258</v>
       </c>
@@ -21967,7 +21977,7 @@
       <c r="M22" s="2"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="72">
         <v>43258</v>
       </c>
@@ -21994,7 +22004,7 @@
       <c r="M23" s="2"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="58">
         <v>43258</v>
       </c>
@@ -22021,7 +22031,7 @@
       <c r="M24" s="2"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="58">
         <v>43258</v>
       </c>
@@ -22048,7 +22058,7 @@
       <c r="M25" s="2"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="58">
         <v>43258</v>
       </c>
@@ -22075,7 +22085,7 @@
       <c r="M26" s="2"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="58">
         <v>43258</v>
       </c>
@@ -22102,7 +22112,7 @@
       <c r="M27" s="2"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28" s="58">
         <v>43258</v>
       </c>
@@ -22132,17 +22142,17 @@
       <c r="M28" s="2"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L29" s="1"/>
       <c r="M29" s="2"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L30" s="1"/>
       <c r="M30" s="2"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>82</v>
       </c>
@@ -22150,7 +22160,7 @@
       <c r="M31" s="2"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>3</v>
       </c>
@@ -22182,7 +22192,7 @@
       <c r="M32" s="52"/>
       <c r="P32" s="53"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>43256</v>
       </c>
@@ -22216,7 +22226,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>43256</v>
       </c>
@@ -22248,7 +22258,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>43256</v>
       </c>
@@ -22265,7 +22275,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>43257</v>
       </c>
@@ -22282,7 +22292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>43257</v>
       </c>
@@ -22299,7 +22309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>43257</v>
       </c>
@@ -22313,7 +22323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>43258</v>
       </c>
@@ -22335,7 +22345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>43258</v>
       </c>
@@ -22352,7 +22362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>43258</v>
       </c>
@@ -22373,7 +22383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>43258</v>
       </c>
@@ -22393,7 +22403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>43258</v>
       </c>
@@ -22413,7 +22423,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>43258</v>
       </c>
@@ -22436,7 +22446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>43258</v>
       </c>
@@ -22459,12 +22469,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>3</v>
       </c>
@@ -22493,7 +22503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>43256</v>
       </c>
@@ -22525,7 +22535,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>43256</v>
       </c>
@@ -22557,7 +22567,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>43256</v>
       </c>
@@ -22589,7 +22599,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B56" s="72">
         <v>43257</v>
       </c>
@@ -22607,7 +22617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>43257</v>
       </c>
@@ -22624,7 +22634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" s="72">
         <v>43257</v>
       </c>
@@ -22642,7 +22652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B59" s="72">
         <v>43257</v>
       </c>
@@ -22660,7 +22670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B60" s="72">
         <v>43257</v>
       </c>
@@ -22678,7 +22688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>43257</v>
       </c>
@@ -22692,7 +22702,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>43257</v>
       </c>
@@ -22709,7 +22719,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>43257</v>
       </c>
@@ -22723,7 +22733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>43257</v>
       </c>
@@ -22737,7 +22747,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>43258</v>
       </c>
@@ -22757,7 +22767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>43258</v>
       </c>
@@ -22777,7 +22787,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>43258</v>
       </c>
@@ -22797,7 +22807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>43258</v>
       </c>
@@ -22817,7 +22827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>43258</v>
       </c>
@@ -22837,7 +22847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>43258</v>
       </c>
@@ -22860,7 +22870,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>43258</v>
       </c>
@@ -22880,7 +22890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>43258</v>
       </c>
@@ -22903,7 +22913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>43258</v>
       </c>
@@ -22926,7 +22936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>43258</v>
       </c>
@@ -22949,7 +22959,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75" s="72">
         <v>43258</v>
       </c>
@@ -22973,7 +22983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>43258</v>
       </c>
@@ -22993,17 +23003,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>3</v>
       </c>
@@ -23032,7 +23042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>43256</v>
       </c>
@@ -23064,7 +23074,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>43256</v>
       </c>
@@ -23081,7 +23091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>43256</v>
       </c>
@@ -23107,7 +23117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>43256</v>
       </c>
@@ -23127,7 +23137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>43257</v>
       </c>
@@ -23144,7 +23154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>43257</v>
       </c>
@@ -23161,7 +23171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>43257</v>
       </c>
@@ -23178,7 +23188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>43257</v>
       </c>
@@ -23195,7 +23205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>43257</v>
       </c>
@@ -23212,7 +23222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>43257</v>
       </c>
@@ -23229,7 +23239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>43257</v>
       </c>
@@ -23246,7 +23256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>43257</v>
       </c>
@@ -23260,7 +23270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>43258</v>
       </c>
@@ -23281,12 +23291,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
@@ -23315,7 +23325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B99" s="58">
         <v>43256</v>
       </c>
@@ -23348,7 +23358,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B100" s="58">
         <v>43256</v>
       </c>
@@ -23381,7 +23391,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B101" s="58">
         <v>43256</v>
       </c>
@@ -23414,7 +23424,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B102" s="72">
         <v>43257</v>
       </c>
@@ -23432,7 +23442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B103" s="58">
         <v>43257</v>
       </c>
@@ -23453,7 +23463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B104" s="72">
         <v>43257</v>
       </c>
@@ -23471,7 +23481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B105" s="72">
         <v>43257</v>
       </c>
@@ -23489,7 +23499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B106" s="72">
         <v>43257</v>
       </c>
@@ -23514,7 +23524,7 @@
       <c r="Q106" s="15"/>
       <c r="R106" s="15"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B107" s="72">
         <v>43257</v>
       </c>
@@ -23532,7 +23542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B108" s="72">
         <v>43257</v>
       </c>
@@ -23550,7 +23560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B109" s="72">
         <v>43257</v>
       </c>
@@ -23568,7 +23578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
         <v>43258</v>
       </c>
@@ -23589,7 +23599,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <v>43258</v>
       </c>
@@ -23606,7 +23616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B112" s="1">
         <v>43258</v>
       </c>
@@ -23626,7 +23636,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>43258</v>
       </c>
@@ -23649,7 +23659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>43258</v>
       </c>
@@ -23672,7 +23682,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
         <v>43258</v>
       </c>
@@ -23695,7 +23705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <v>43258</v>
       </c>
@@ -23718,7 +23728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" s="72">
         <v>43258</v>
       </c>
@@ -23742,12 +23752,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>3</v>
       </c>
@@ -23776,7 +23786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B120" s="58">
         <v>43256</v>
       </c>
@@ -23809,7 +23819,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B121" s="58">
         <v>43256</v>
       </c>
@@ -23842,7 +23852,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B122" s="58">
         <v>43256</v>
       </c>
@@ -23875,7 +23885,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" s="72">
         <v>43257</v>
       </c>
@@ -23893,7 +23903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B124" s="72">
         <v>43257</v>
       </c>
@@ -23911,7 +23921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B125" s="72">
         <v>43257</v>
       </c>
@@ -23929,7 +23939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B126" s="58">
         <v>43257</v>
       </c>
@@ -23950,7 +23960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B127" s="72">
         <v>43257</v>
       </c>
@@ -23968,7 +23978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B128" s="72">
         <v>43257</v>
       </c>
@@ -23986,7 +23996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B129" s="72">
         <v>43257</v>
       </c>
@@ -24004,7 +24014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B130" s="81">
         <v>43258</v>
       </c>
@@ -24025,7 +24035,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B131" s="81">
         <v>43258</v>
       </c>
@@ -24046,7 +24056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="81">
         <v>43258</v>
       </c>
@@ -24067,7 +24077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="81">
         <v>43258</v>
       </c>
@@ -24091,7 +24101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" s="81">
         <v>43258</v>
       </c>
@@ -24115,7 +24125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B135" s="81">
         <v>43258</v>
       </c>
@@ -24139,7 +24149,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B136" s="81">
         <v>43258</v>
       </c>
@@ -24163,7 +24173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B137" s="72">
         <v>43258</v>
       </c>
@@ -24187,7 +24197,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B138" s="81">
         <v>43258</v>
       </c>
@@ -24211,7 +24221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B139" s="81">
         <v>43258</v>
       </c>
@@ -24235,7 +24245,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="81">
         <v>43258</v>
       </c>
@@ -24259,7 +24269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B141" s="81">
         <v>43258</v>
       </c>
@@ -24283,7 +24293,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B142" s="81">
         <v>43258</v>
       </c>
@@ -24319,16 +24329,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>150</v>
       </c>
@@ -24345,7 +24355,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>150</v>
       </c>
@@ -24365,7 +24375,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>152</v>
       </c>
@@ -24382,7 +24392,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>152</v>
       </c>
@@ -24399,7 +24409,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>153</v>
       </c>
@@ -24416,7 +24426,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>153</v>
       </c>
@@ -24433,7 +24443,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>155</v>
       </c>
@@ -24450,7 +24460,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>155</v>
       </c>
@@ -24467,7 +24477,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>157</v>
       </c>
@@ -24484,7 +24494,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>157</v>
       </c>
@@ -24501,7 +24511,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>159</v>
       </c>
@@ -24518,7 +24528,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>161</v>
       </c>
@@ -24535,7 +24545,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>100</v>
       </c>
@@ -24552,7 +24562,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>100</v>
       </c>
@@ -24569,7 +24579,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>100</v>
       </c>
@@ -24586,7 +24596,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>100</v>
       </c>
@@ -24603,7 +24613,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>101</v>
       </c>
@@ -24620,7 +24630,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
@@ -24637,7 +24647,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>101</v>
       </c>
@@ -24654,7 +24664,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>101</v>
       </c>
@@ -24671,7 +24681,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>102</v>
       </c>
@@ -24688,7 +24698,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>102</v>
       </c>
@@ -24705,7 +24715,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>102</v>
       </c>
@@ -24722,7 +24732,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>104</v>
       </c>
@@ -24739,7 +24749,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>104</v>
       </c>
@@ -24756,7 +24766,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>104</v>
       </c>
@@ -24773,7 +24783,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>105</v>
       </c>
@@ -24790,7 +24800,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>105</v>
       </c>
@@ -24807,7 +24817,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>105</v>
       </c>
@@ -24824,7 +24834,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>105</v>
       </c>
@@ -24841,7 +24851,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>106</v>
       </c>
@@ -24858,7 +24868,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>106</v>
       </c>
@@ -24875,7 +24885,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>106</v>
       </c>
@@ -24892,7 +24902,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>107</v>
       </c>
@@ -24909,7 +24919,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>107</v>
       </c>
@@ -24926,7 +24936,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>107</v>
       </c>
@@ -24943,7 +24953,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>108</v>
       </c>
@@ -24960,7 +24970,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>108</v>
       </c>
@@ -24977,7 +24987,7 @@
         <v>43262</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>108</v>
       </c>
@@ -24994,7 +25004,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>118</v>
       </c>
@@ -25011,7 +25021,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>120</v>
       </c>
@@ -25028,7 +25038,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>122</v>
       </c>
@@ -25045,7 +25055,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>124</v>
       </c>
@@ -25062,7 +25072,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>126</v>
       </c>
@@ -25079,7 +25089,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>128</v>
       </c>
@@ -25096,7 +25106,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>130</v>
       </c>
@@ -25113,7 +25123,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -25133,7 +25143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>134</v>
       </c>
@@ -25150,7 +25160,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>134</v>
       </c>
@@ -25167,7 +25177,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>134</v>
       </c>
@@ -25184,7 +25194,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>141</v>
       </c>
@@ -25201,7 +25211,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
         <v>141</v>
       </c>
@@ -25218,7 +25228,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>135</v>
       </c>
@@ -25235,7 +25245,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>135</v>
       </c>
@@ -25252,7 +25262,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>135</v>
       </c>
@@ -25269,7 +25279,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="30" t="s">
         <v>136</v>
       </c>
@@ -25286,7 +25296,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>132</v>
       </c>
@@ -25303,7 +25313,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
         <v>132</v>
       </c>
@@ -25320,7 +25330,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>132</v>
       </c>
@@ -25337,7 +25347,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="30" t="s">
         <v>139</v>
       </c>
@@ -25354,7 +25364,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>139</v>
       </c>
@@ -25371,7 +25381,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
         <v>139</v>
       </c>
